--- a/medicine/Enfance/Hanna_Onystchenko/Hanna_Onystchenko.xlsx
+++ b/medicine/Enfance/Hanna_Onystchenko/Hanna_Onystchenko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hanna Onystchenko est une femme politique ukrainienne. Née le 15 octobre 1984 à Kiev.
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière politique
-Elle est ministre du Gouvernement Iatseniouk II.
-Autrice
-De livre pour enfant : "Petit Mouk" (2016)[1], "Les aventures du nouvel an de Morozenko" (2017)[2], "Nikitas Borovytchok" (2017)[3] et "L'ordre secret de la grande Stingray" (2020)[4].
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est ministre du Gouvernement Iatseniouk II.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hanna_Onystchenko</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hanna_Onystchenko</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Autrice</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De livre pour enfant : "Petit Mouk" (2016), "Les aventures du nouvel an de Morozenko" (2017), "Nikitas Borovytchok" (2017) et "L'ordre secret de la grande Stingray" (2020).
 </t>
         </is>
       </c>
